--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/101.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/101.xlsx
@@ -479,13 +479,13 @@
         <v>-15.47381088740564</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69238170625404</v>
+        <v>-10.69261736770519</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.009337166877916</v>
+        <v>-3.979892577786874</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.806376745984274</v>
+        <v>-6.843912378231503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.18963454423602</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05048237358093</v>
+        <v>-11.0513202809628</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.050525551617986</v>
+        <v>-4.015045410916909</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.811089975007295</v>
+        <v>-6.842995917032582</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.7386649024903</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88349323418859</v>
+        <v>-11.88328375734313</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.803526166205982</v>
+        <v>-3.772628331499509</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.644438052134964</v>
+        <v>-6.676605840217085</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.31284291899912</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73783145612543</v>
+        <v>-12.74136637789269</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.890406687863677</v>
+        <v>-3.851260702366916</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.989917739522431</v>
+        <v>-7.026405987542322</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.904993627258051</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45377094472238</v>
+        <v>-13.46180961866719</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.644847455764263</v>
+        <v>-3.60690596212894</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.548982072115939</v>
+        <v>-6.580272675907664</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.558849953194443</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.1446648579831</v>
+        <v>-14.15320103943591</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.698211682147138</v>
+        <v>-3.655779528637104</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.720975654547694</v>
+        <v>-6.751729473922909</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.269910469087964</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76226805993585</v>
+        <v>-14.77520325514347</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.522892654793584</v>
+        <v>-3.485029714975313</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.404560879468859</v>
+        <v>-6.425285994867311</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.042029213383997</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.67571802920307</v>
+        <v>-15.68942567027836</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.366269435898015</v>
+        <v>-3.326652127498952</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.185592114440991</v>
+        <v>-6.193696249900019</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.870120958812572</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.3274528646642</v>
+        <v>-16.34148781331053</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.354996963151289</v>
+        <v>-3.312996855635032</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.752433274922483</v>
+        <v>-5.763090409435648</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.759740562180336</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.86669863410921</v>
+        <v>-16.88953161026518</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.209934247664964</v>
+        <v>-3.171023923619354</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.520529314686989</v>
+        <v>-5.532626602512744</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.713273513530802</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.48969586483275</v>
+        <v>-17.50947833442659</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.33346012497665</v>
+        <v>-3.301383983014421</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.924371304788993</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.725881315062475</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38333717990044</v>
+        <v>-18.40085468110267</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.111493222598026</v>
+        <v>-3.07852680404256</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.2775722674992</v>
+        <v>-4.288844740245926</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.7961652499840537</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11009091064465</v>
+        <v>-19.12091824509476</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.994670604341304</v>
+        <v>-2.961232862883536</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.722236057861705</v>
+        <v>-3.74335394234541</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08184923852043932</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.87537528865207</v>
+        <v>-19.89365214341912</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.920175401171883</v>
+        <v>-2.885114214161741</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.12471644846817</v>
+        <v>-3.145493933077989</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9095915937826056</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.73678335412344</v>
+        <v>-20.7621562370307</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.910814404640049</v>
+        <v>-2.87039846576764</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.52383211724431</v>
+        <v>-2.55554167472697</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.682161685735393</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.45138742783053</v>
+        <v>-21.47890744840384</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.831592880144764</v>
+        <v>-2.791176941272356</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.103215703848176</v>
+        <v>-2.134296830794434</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.376320059312804</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.36026818340599</v>
+        <v>-22.39053758757606</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.735272808138186</v>
+        <v>-2.692709731599734</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.873602896609984</v>
+        <v>-1.898334256678005</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.96077174272759</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.20351722483588</v>
+        <v>-23.2348994747475</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.749752895081135</v>
+        <v>-2.710921124852575</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.407399084718961</v>
+        <v>-1.441884210404067</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.399380274717637</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.00237026732949</v>
+        <v>-24.03148754884948</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.527956192639453</v>
+        <v>-2.490682406449059</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.16876568082282</v>
+        <v>-1.196953408841056</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.658216969053647</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.45495808426512</v>
+        <v>-24.48744008761544</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.368518128632914</v>
+        <v>-2.33276304957216</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7784186715967572</v>
+        <v>-0.8067111380377272</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.711999896394377</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.11757262338771</v>
+        <v>-25.1497927806812</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.160834928654613</v>
+        <v>-2.130238216913499</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6239164057615478</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.556434451276695</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.6865248279806</v>
+        <v>-25.71764523183538</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.156056238117383</v>
+        <v>-2.126035587701305</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2533387738264915</v>
+        <v>-0.2766692574904474</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.209559247971978</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.12471111179033</v>
+        <v>-26.15558276189112</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.103883411293104</v>
+        <v>-2.078445066871631</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2934404974306984</v>
+        <v>-0.3126861826080358</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.70470207165922</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.40084087102518</v>
+        <v>-26.43211838251406</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.756269678542435</v>
+        <v>-1.732507148884703</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2726891974265626</v>
+        <v>-0.289447345063972</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.085743168670139</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.31921036280701</v>
+        <v>-26.35259573505342</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.65853563782895</v>
+        <v>-1.639015014291937</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4320748922217358</v>
+        <v>-0.4484009938653682</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.401437520776626</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.24586728228767</v>
+        <v>-26.2891766200881</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.732913010272796</v>
+        <v>-1.714858724654056</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3864744014240039</v>
+        <v>-0.3953902596592194</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7003648147909906</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.40901046799841</v>
+        <v>-26.44515831614442</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.449883607440362</v>
+        <v>-1.431528198856262</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7206030622476949</v>
+        <v>-0.7280002133532701</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.02335453442313811</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.32942235902356</v>
+        <v>-26.37379217335417</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.362872162754251</v>
+        <v>-1.348876491016445</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7917990051010012</v>
+        <v>-0.7965646033353895</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.5967532645042237</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.1399505522981</v>
+        <v>-26.18027484505062</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.442604287060362</v>
+        <v>-1.428700261442449</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9324103376211392</v>
+        <v>-0.9351597212179017</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.140163658389967</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.80186801601621</v>
+        <v>-25.84024155564531</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.355880873036769</v>
+        <v>-1.342945677829144</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.413827405414249</v>
+        <v>-1.414180897590975</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.601950958316549</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.82115297810207</v>
+        <v>-25.86444922359966</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.189438427009905</v>
+        <v>-1.178768200193899</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.710315695567977</v>
+        <v>-1.715408601373408</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.991539206264865</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.46937589304773</v>
+        <v>-25.51047263166791</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.161263791294511</v>
+        <v>-1.152884717475806</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.212824463239107</v>
+        <v>-2.220116875921948</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.323903894221608</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.91542746751146</v>
+        <v>-24.94896994739197</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.183389783097028</v>
+        <v>-1.177040016218791</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.315664502060865</v>
+        <v>-2.319801669758851</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.617724752502415</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.50409349683011</v>
+        <v>-24.54152439065461</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.35133784395069</v>
+        <v>-1.345603415306014</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522640717685713</v>
+        <v>-2.521554056549849</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.892901423630851</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.85281689196845</v>
+        <v>-23.88692234087114</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.350421382751769</v>
+        <v>-1.34466076950141</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.710148678984913</v>
+        <v>-2.701416112989482</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.167676459221377</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.09125072796808</v>
+        <v>-23.12281627011949</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.332380189435871</v>
+        <v>-1.328727436943029</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.846766859138325</v>
+        <v>-2.845915859453613</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.452887388774673</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.70582642461051</v>
+        <v>-22.73313696833835</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.407477638536011</v>
+        <v>-1.402646578787414</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.161008311945434</v>
+        <v>-3.16378388014788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.751879436204594</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.07455485849101</v>
+        <v>-22.11219522916097</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.316551595300224</v>
+        <v>-1.307544090945116</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.390477103852367</v>
+        <v>-3.394430979310568</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.062667412803206</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.5864869008543</v>
+        <v>-21.62389161007311</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.484146163977159</v>
+        <v>-1.474196013817447</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.621791910459983</v>
+        <v>-3.625758878221026</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.38166338230883</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.11825378202281</v>
+        <v>-21.13604622158471</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.393769997460724</v>
+        <v>-1.378897141432523</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.623795032794767</v>
+        <v>-3.626649154814263</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.703444779649764</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.3021712689895</v>
+        <v>-20.33482347227676</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.11847814560775</v>
+        <v>-1.101955659421492</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.736231729599511</v>
+        <v>-3.742568404174906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.021129738217728</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.47349396062245</v>
+        <v>-19.494376183655</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.127053603969081</v>
+        <v>-1.110858425353866</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.874604278333713</v>
+        <v>-3.879461522687994</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.329485342023975</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.04949973309315</v>
+        <v>-19.07162572489566</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.145985073878216</v>
+        <v>-1.127629665294117</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.101611717306402</v>
+        <v>-4.108760114657984</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.627684012317119</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55787066908349</v>
+        <v>-18.57351597097935</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.13569452384462</v>
+        <v>-1.118268668762282</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.212333322438879</v>
+        <v>-4.216797797707907</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.916096748349229</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09898545448099</v>
+        <v>-18.10698485151729</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.099991813995233</v>
+        <v>-1.082853989575413</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.344840519499988</v>
+        <v>-4.342208966628801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.195157946858314</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34043052013423</v>
+        <v>-17.35382394594131</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.190603641962819</v>
+        <v>-1.170611695523503</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.654748420066486</v>
+        <v>-4.657576357480299</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.468524323616954</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.49710292488728</v>
+        <v>-16.51338974962239</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.117051084598002</v>
+        <v>-1.098381460745701</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.601724593557496</v>
+        <v>-4.598818102326632</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.742261349162401</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85834256154231</v>
+        <v>-15.86302960595965</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.059183106037573</v>
+        <v>-1.03329962331948</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.834204615118026</v>
+        <v>-4.835880429881766</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.020656340159377</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.98024180994774</v>
+        <v>-14.99311154364116</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.019853828301028</v>
+        <v>-0.9978325749212443</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954850185804531</v>
+        <v>-4.95423484757097</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.305445637504467</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18392867420544</v>
+        <v>-14.19343368606853</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.020992858648258</v>
+        <v>-0.9997571434389781</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.13976587114107</v>
+        <v>-5.141192932150818</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.600421945797479</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.47625042870162</v>
+        <v>-13.49774798996773</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9662539404670011</v>
+        <v>-0.9434078720081891</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.0415343229196</v>
+        <v>-5.045776229040319</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.908372019685635</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.77621808805737</v>
+        <v>-12.79504481954377</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9598256197717135</v>
+        <v>-0.9339028601450959</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.120899862746143</v>
+        <v>-5.124382415302042</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.228126963141589</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.40996091606008</v>
+        <v>-12.42603826394972</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.157493208076094</v>
+        <v>-1.132120325168829</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.292003168584661</v>
+        <v>-5.296389090036639</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.555246422672615</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.72892550683918</v>
+        <v>-11.73939934911255</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.245682960017961</v>
+        <v>-1.219171046763465</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.770264991392914</v>
+        <v>-5.77281799044705</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.887444623726891</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30638452492531</v>
+        <v>-11.31744752082657</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.258631247528428</v>
+        <v>-1.230325688784616</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.902994757602333</v>
+        <v>-5.90524663369111</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.222435961067074</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.53154276584343</v>
+        <v>-10.54099540849516</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.247254036358968</v>
+        <v>-1.218712816164005</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.359994680595623</v>
+        <v>-6.364184217504976</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.55444733073829</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.06566626152345</v>
+        <v>-10.08340633187399</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.447775746682844</v>
+        <v>-1.416301850651335</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.206592168199119</v>
+        <v>-6.21478794977804</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.873071362383994</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.494815673018513</v>
+        <v>-9.50632380721639</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.437616119677665</v>
+        <v>-1.407255069387702</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.431936884710908</v>
+        <v>-6.441716834933677</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.17372801171672</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.207374164128417</v>
+        <v>-9.221461481986115</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.517322059378093</v>
+        <v>-1.488951039120073</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.31552012784228</v>
+        <v>-6.328546969169797</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.45005213400917</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.580200488798372</v>
+        <v>-8.602457403629305</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.597656429614924</v>
+        <v>-1.564637641848091</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.72087091612496</v>
+        <v>-6.725073545337155</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.69524974026088</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.00743842407854</v>
+        <v>-8.030978384587963</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.516183029030863</v>
+        <v>-1.486908639876763</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.589057611114463</v>
+        <v>-6.596480946825722</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.90054968581672</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.543682872818919</v>
+        <v>-7.5652328032964</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.502933618555036</v>
+        <v>-1.468186646813095</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.656535339960719</v>
+        <v>-6.666681874663056</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.06455911420783</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.13030650289426</v>
+        <v>-7.159541615139834</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.645574258015642</v>
+        <v>-1.612359085706182</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.83190673652564</v>
+        <v>-6.84002396428751</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.18533862774725</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.700381462177659</v>
+        <v>-6.72867392861863</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.530545285248236</v>
+        <v>-1.499084481519569</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.00575942596092</v>
+        <v>-7.005392841481352</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.25955296227238</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.458396428754036</v>
+        <v>-6.483546742512992</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.69038921064287</v>
+        <v>-1.660879160037619</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.03837235233966</v>
+        <v>-7.041305028176206</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.2816684275774</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.32583686248156</v>
+        <v>-6.355215990058393</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.681473352407654</v>
+        <v>-1.652212055556397</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.094472870016456</v>
+        <v>-7.100626252352067</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.25211908657911</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.050780672079737</v>
+        <v>-6.080775137890131</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.614977546274528</v>
+        <v>-1.593178862043054</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.049121132972717</v>
+        <v>-7.050574378588149</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.17348866001082</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.956254245562475</v>
+        <v>-5.988670787398589</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.894341104311279</v>
+        <v>-1.869099144432431</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.082742166670269</v>
+        <v>-7.081393659477571</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.04997573368992</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.855836282766436</v>
+        <v>-5.892651838357369</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.844027384490525</v>
+        <v>-1.820984931489087</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.823750231855244</v>
+        <v>-6.824522677722906</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.88627727553273</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.594225887383065</v>
+        <v>-5.633699180450869</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.858363456102215</v>
+        <v>-1.836708787202</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.727927667356651</v>
+        <v>-6.725283022182622</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.69557643992503</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.685230484435904</v>
+        <v>-5.730438206148383</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.93948336450955</v>
+        <v>-1.918038172454803</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.544177196973026</v>
+        <v>-6.53806309154594</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.49011376052577</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.757094134734138</v>
+        <v>-5.802472056383561</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.027188701246273</v>
+        <v>-2.006018447551202</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.378062058517205</v>
+        <v>-6.373152444951558</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.27770431874509</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.958610860073986</v>
+        <v>-6.00172381333179</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.888501937243869</v>
+        <v>-1.86742332966869</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.274305558496526</v>
+        <v>-6.261684578557102</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.06159655503813</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.111646787990922</v>
+        <v>-6.158517232164301</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.147952102658354</v>
+        <v>-2.13259483142501</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.130028381180705</v>
+        <v>-6.118729723828295</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.847922210434195</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.590759610483887</v>
+        <v>-6.638166839073777</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.128994448143535</v>
+        <v>-2.108662101830334</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.893515930344924</v>
+        <v>-5.878211028322946</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.63720617630964</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.052852439282608</v>
+        <v>-7.093543316514693</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.181389844116123</v>
+        <v>-2.162602389538246</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.94969500183877</v>
+        <v>-5.937218037230605</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.425198545334695</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.5377782442373</v>
+        <v>-7.579097552005788</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.131704554831772</v>
+        <v>-2.11029863968555</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.577520108957023</v>
+        <v>-5.563799375578894</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.203249588781517</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.933427636114262</v>
+        <v>-7.971382222052426</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.166922849476015</v>
+        <v>-2.151801239693822</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.416249122552641</v>
+        <v>-5.402541481477354</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.967955015909723</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.312331972656656</v>
+        <v>-8.353441803579676</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.432775150980105</v>
+        <v>-2.415833711102911</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.023218191244025</v>
+        <v>-5.010832872755752</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.712528674237763</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.218109852458632</v>
+        <v>-9.25465046968989</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.357298025097554</v>
+        <v>-2.33883787809072</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.017090993514097</v>
+        <v>-5.000738707264781</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.430181948080268</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.951894149828853</v>
+        <v>-9.98311929210637</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.446914838049169</v>
+        <v>-2.428009552745717</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.847296917959752</v>
+        <v>-4.831167200858745</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.115886025485368</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.70608934732932</v>
+        <v>-10.73449964449587</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.51427473616985</v>
+        <v>-2.50441623213003</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.521102192658146</v>
+        <v>-4.50375489139286</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.77473676089734</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.84640274023798</v>
+        <v>-11.87668523671089</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.595355367668659</v>
+        <v>-2.581595357382005</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.415552047148151</v>
+        <v>-4.396921700204375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.41355925127458</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.66024646948536</v>
+        <v>-12.68895788961726</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.738284037791783</v>
+        <v>-2.724550212110812</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.050682659252087</v>
+        <v>-4.029656420888275</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.042159933931679</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.69351719436006</v>
+        <v>-13.72493872118021</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.834473186769944</v>
+        <v>-2.821537991562319</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.734516637927245</v>
+        <v>-3.719683058807569</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.673770975537384</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.69117685550527</v>
+        <v>-14.7217473826407</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.869167789300518</v>
+        <v>-2.857541824377066</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.283971220234925</v>
+        <v>-3.265589627045142</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.32637153144263</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.05408558132896</v>
+        <v>-16.07770409565543</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.773737993887177</v>
+        <v>-2.756822738615667</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.033960605169324</v>
+        <v>-3.016011057973318</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.013764847127578</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.4786983304457</v>
+        <v>-17.50665039701278</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.014007935638534</v>
+        <v>-3.002656909074757</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.765764781456566</v>
+        <v>-2.751559632873293</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.744275014143744</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.94909486259995</v>
+        <v>-18.97572460658002</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.211374400977554</v>
+        <v>-3.198007159776152</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.640942766163549</v>
+        <v>-2.630141616319126</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.523286790014636</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.57484466027413</v>
+        <v>-20.59567451409531</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.420563215782653</v>
+        <v>-3.402888606946323</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.702149281948619</v>
+        <v>-2.696231561064159</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.353569594279546</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.0516171439123</v>
+        <v>-22.07435847394838</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.433406764870387</v>
+        <v>-3.424425445120963</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.591388399907616</v>
+        <v>-2.581032388359811</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.230774007093273</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.04349319055535</v>
+        <v>-24.06658801276815</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.642949071852212</v>
+        <v>-3.621975202699767</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.562912641226862</v>
+        <v>-2.554559752013841</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.143181163953643</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.21301869445777</v>
+        <v>-26.23359979452497</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.448476005441213</v>
+        <v>-3.429596904743444</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.719850075390633</v>
+        <v>-2.708656156460957</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.077711753578445</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.38821316549067</v>
+        <v>-28.40993329590509</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.950133773427631</v>
+        <v>-3.926999674306301</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.941136178021486</v>
+        <v>-2.936069456821738</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.017994963581428</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.43325705397396</v>
+        <v>-30.46055450539896</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.931136842004287</v>
+        <v>-3.907924189065906</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.274570946794566</v>
+        <v>-3.269569687109027</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.947218290640492</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.70121049064048</v>
+        <v>-32.7320559561356</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.087354199511762</v>
+        <v>-4.068972606321979</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.358767546369706</v>
+        <v>-3.353216409964814</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.84502617536786</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.20236402552383</v>
+        <v>-35.22912469253232</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.365002665876247</v>
+        <v>-4.341947120571967</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783311650618357</v>
+        <v>-3.781648928157458</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.705318068703337</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.60253662858895</v>
+        <v>-37.62781786537632</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.221903795816181</v>
+        <v>-4.203993525528699</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.174850059403017</v>
+        <v>-4.167754031262802</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.522111822468558</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.22467613403269</v>
+        <v>-40.24820300223927</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.341292505429881</v>
+        <v>-4.321706420378659</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.42555456651923</v>
+        <v>-4.418314523047755</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.31295858859854</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.6647278915537</v>
+        <v>-42.68663131420791</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.496423201801493</v>
+        <v>-4.476810932144588</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.935748515958453</v>
+        <v>-4.924777166177086</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.077245323652752</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.03146275316105</v>
+        <v>-45.05591917486939</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.58583053790764</v>
+        <v>-4.567488221626382</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.141873731898588</v>
+        <v>-5.137343795115351</v>
       </c>
     </row>
   </sheetData>
